--- a/learning_devops_t1-3.xlsx
+++ b/learning_devops_t1-3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\devops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learningDevops\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1980,7 +1980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2331,7 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2744,7 +2746,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
